--- a/SWE 2/ST-Comm_Testing/RegisterCourse.xlsx
+++ b/SWE 2/ST-Comm_Testing/RegisterCourse.xlsx
@@ -19,27 +19,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
-  <si>
-    <t>AndrewEmad</t>
-  </si>
-  <si>
-    <t>X123456</t>
-  </si>
-  <si>
-    <t>course3</t>
-  </si>
-  <si>
-    <t>MariamAshraf</t>
-  </si>
-  <si>
-    <t>ABC123</t>
-  </si>
-  <si>
-    <t>course4</t>
-  </si>
-  <si>
-    <t>course5</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Mariam</t>
+  </si>
+  <si>
+    <t>Math2</t>
+  </si>
+  <si>
+    <t>Science</t>
   </si>
 </sst>
 </file>
@@ -358,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -370,38 +367,29 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SWE 2/ST-Comm_Testing/RegisterCourse.xlsx
+++ b/SWE 2/ST-Comm_Testing/RegisterCourse.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Andrew</t>
   </si>
@@ -27,16 +27,10 @@
     <t>123456</t>
   </si>
   <si>
-    <t>Math</t>
+    <t>Science</t>
   </si>
   <si>
-    <t>Mariam</t>
-  </si>
-  <si>
-    <t>Math2</t>
-  </si>
-  <si>
-    <t>Science</t>
+    <t>physics</t>
   </si>
 </sst>
 </file>
@@ -355,7 +349,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -371,23 +365,9 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
         <v>2</v>
       </c>
     </row>
